--- a/Project1JavaTry2/excel/firstFitData.xlsx
+++ b/Project1JavaTry2/excel/firstFitData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\School Work\_College Sp 2016\Op Sys\CS4323Projects\Project1JavaTry2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoalie\Documents\GitHub\CS4323Projects\Project1JavaTry2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Chart4" sheetId="5" r:id="rId4"/>
     <sheet name="firstFitData" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -631,7 +631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -714,148 +713,148 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>708</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1308</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1528</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1808</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1903</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2033</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2108</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2238</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2328</c:v>
+                  <c:v>2318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2513</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2613</c:v>
+                  <c:v>2603</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2723</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2933</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3038</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3108</c:v>
+                  <c:v>3138</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3313</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3418</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3538</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3728</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3908</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4032</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4102</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4202</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4328</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4401</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4636</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4715</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4808</c:v>
+                  <c:v>4828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4906</c:v>
+                  <c:v>4903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,37 +866,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>40</c:v>
@@ -912,16 +911,16 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>64</c:v>
@@ -930,19 +929,19 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>81</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>84</c:v>
@@ -951,67 +950,67 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>101</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>109</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>111</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>116</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>119</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>125</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>126</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>129</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>131</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>133</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>135</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>136</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>138</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,148 +1064,148 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>708</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1308</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1528</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1808</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1903</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2033</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2108</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2238</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2328</c:v>
+                  <c:v>2318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2513</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2613</c:v>
+                  <c:v>2603</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2723</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2933</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3038</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3108</c:v>
+                  <c:v>3138</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3313</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3418</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3538</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3728</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3908</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4032</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4102</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4202</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4328</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4401</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4636</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4715</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4808</c:v>
+                  <c:v>4828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4906</c:v>
+                  <c:v>4903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,151 +1217,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>442</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>449</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>470</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>480</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>494</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>512</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>528</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>544</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>559</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>574</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>594</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>617</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>633</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>646</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>656</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>677</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>699</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>712</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>733</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>743</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849791472"/>
-        <c:axId val="-849798000"/>
+        <c:axId val="1620802016"/>
+        <c:axId val="1620787328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849791472"/>
+        <c:axId val="1620802016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1428,7 +1427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1495,12 +1493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849798000"/>
+        <c:crossAx val="1620787328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-849798000"/>
+        <c:axId val="1620787328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1613,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849791472"/>
+        <c:crossAx val="1620802016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,7 +1624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1729,7 +1725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1809,148 +1804,148 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>708</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1308</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1528</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1808</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1903</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2033</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2108</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2238</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2328</c:v>
+                  <c:v>2318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2513</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2613</c:v>
+                  <c:v>2603</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2723</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2933</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3038</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3108</c:v>
+                  <c:v>3138</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3313</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3418</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3538</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3728</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3908</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4032</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4102</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4202</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4328</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4401</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4636</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4715</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4808</c:v>
+                  <c:v>4828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4906</c:v>
+                  <c:v>4903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,151 +1957,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>446.66665999999998</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.333331999999999</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>108.333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.666663999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>47.142856999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.428570000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>59.411766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.157893999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.545456000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.391303999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.260868000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.869563999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.272728000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.652172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.916668000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.642856999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>36.666668000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36.153846999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.105263000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.736843</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.545456000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.727271999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
+                  <c:v>37.741936000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.032257000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.3125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.696967999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.814816</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.185184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.545453999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.047619000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.476189999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>33.333331999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35.517242000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38.787880000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35.806449999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>36.774192999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36.875</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36.25</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35.9375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>36.969695999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.757576</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36.470590000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35.757576</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.285713000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37.714286999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36.470590000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.22222</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.37838</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39.743589999999998</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.5</c:v>
+                  <c:v>35.76923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.243904000000001</c:v>
+                  <c:v>37.857143000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.243904000000001</c:v>
+                  <c:v>39.032257000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.75</c:v>
+                  <c:v>34.074074000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.75</c:v>
+                  <c:v>29.130434000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.75</c:v>
+                  <c:v>31.538461999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>39.5</c:v>
+                  <c:v>32.857143000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39.5</c:v>
+                  <c:v>33.793101999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.243904000000001</c:v>
+                  <c:v>35.625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.75</c:v>
+                  <c:v>36.764705999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,11 +2116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849780048"/>
-        <c:axId val="-541814416"/>
+        <c:axId val="1620791680"/>
+        <c:axId val="1620800384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849780048"/>
+        <c:axId val="1620791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2183,12 +2178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541814416"/>
+        <c:crossAx val="1620800384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541814416"/>
+        <c:axId val="1620800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849780048"/>
+        <c:crossAx val="1620791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,7 +2328,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2413,148 +2407,148 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>708</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1308</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1528</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1808</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1903</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2033</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2108</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2238</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2328</c:v>
+                  <c:v>2318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2513</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2613</c:v>
+                  <c:v>2603</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2723</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2933</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3038</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3108</c:v>
+                  <c:v>3138</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3313</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3418</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3538</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3728</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3908</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4032</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4102</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4202</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4328</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4401</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4636</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4715</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4808</c:v>
+                  <c:v>4828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4906</c:v>
+                  <c:v>4903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,94 +2560,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>320</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>460</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>480</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>480</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>480</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>480</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>480</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>500</c:v>
@@ -2692,25 +2686,25 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>500</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,11 +2719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541789936"/>
-        <c:axId val="-541804624"/>
+        <c:axId val="1620792768"/>
+        <c:axId val="1620793312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541789936"/>
+        <c:axId val="1620792768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2787,12 +2781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541804624"/>
+        <c:crossAx val="1620793312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541804624"/>
+        <c:axId val="1620793312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +2843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541789936"/>
+        <c:crossAx val="1620792768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2933,7 +2927,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3013,148 +3006,148 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>708</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1308</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1528</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1808</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1903</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2033</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2108</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2238</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2328</c:v>
+                  <c:v>2318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2513</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2613</c:v>
+                  <c:v>2603</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2723</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2933</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3038</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3108</c:v>
+                  <c:v>3138</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3313</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3418</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3538</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3728</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3908</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4032</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4102</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4202</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4328</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4401</c:v>
+                  <c:v>4428</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4636</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4715</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4808</c:v>
+                  <c:v>4828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4906</c:v>
+                  <c:v>4903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,151 +3159,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>25.555554999999998</c:v>
+                  <c:v>84.44444</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78.333336000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.111114999999998</c:v>
+                  <c:v>63.333331999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.777780000000007</c:v>
+                  <c:v>57.22222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.55556</c:v>
+                  <c:v>38.333331999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.55556</c:v>
+                  <c:v>31.666665999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.777780000000007</c:v>
+                  <c:v>20.555554999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.222219999999993</c:v>
+                  <c:v>72.777780000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.333331999999999</c:v>
+                  <c:v>60.555557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.44444</c:v>
+                  <c:v>41.111109999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>59.444443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.88889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.11111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.333334000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.777778999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.888889000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.11111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.777778999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.88889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.333334000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.77778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.22222</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55.555557</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.22222</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>52.77778</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59.444443</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53.888890000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63.888890000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61.111109999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.555557</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50.555557</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
+                  <c:v>43.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.11111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.555557</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>37.77778</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.88889</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.22222</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
+                  <c:v>33.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.222221000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.777778999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.444445000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.666665999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.666665999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17.777778999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.777778999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17.222221000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.777778</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5555553</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.8888888000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.8888888000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8888888000000001</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>21.11111</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3333333000000001</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541792112"/>
-        <c:axId val="-541813328"/>
+        <c:axId val="1620788960"/>
+        <c:axId val="1620790048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541792112"/>
+        <c:axId val="1620788960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3387,12 +3380,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541813328"/>
+        <c:crossAx val="1620790048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541813328"/>
+        <c:axId val="1620790048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541792112"/>
+        <c:crossAx val="1620788960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6138,8 +6131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,24 +6152,24 @@
         <v>103</v>
       </c>
       <c r="E1" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>4</v>
+        <f t="shared" ref="E1:E6" ca="1" si="0">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f ca="1">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>446.66665999999998</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1">
         <f ca="1">OFFSET(B$12,7*(ROW()-2),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1">
         <f ca="1">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>25.555554999999998</v>
+        <v>84.44444</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6184,31 +6177,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D49" ca="1" si="0">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>223</v>
+        <f t="shared" ref="D2:D49" ca="1" si="1">OFFSET(B$8,7*(ROW()-2),0)</f>
+        <v>218</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F49" ca="1" si="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>6</v>
+        <f t="shared" ref="F2:F49" ca="1" si="2">OFFSET(B$10,7*(ROW()-2),0)</f>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G49" ca="1" si="2">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>63.333331999999999</v>
+        <f t="shared" ref="G2:G49" ca="1" si="3">OFFSET(B$11,7*(ROW()-2),0)</f>
+        <v>95</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H49" ca="1" si="3">OFFSET(B$12,7*(ROW()-2),0)</f>
-        <v>30</v>
+        <f t="shared" ref="H2:H49" ca="1" si="4">OFFSET(B$12,7*(ROW()-2),0)</f>
+        <v>40</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I49" ca="1" si="4">OFFSET(B$13,7*(ROW()-2),0)</f>
+        <f t="shared" ref="I2:I49" ca="1" si="5">OFFSET(B$13,7*(ROW()-2),0)</f>
         <v>78.333336000000003</v>
       </c>
     </row>
@@ -6217,31 +6210,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="E3" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>47.142856999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108.333336</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>81.111114999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>63.333331999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6249,31 +6242,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>446.66665999999998</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
-      </c>
-      <c r="E4" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.428570000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>82.777780000000007</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>57.22222</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,31 +6274,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>513</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>558</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.666668000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>80.55556</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>38.333331999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6313,57 +6306,57 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>25.555554999999998</v>
+        <v>84.44444</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>608</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.666668000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>101.666664</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>80.55556</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31.666665999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>708</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>728</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E70" ca="1" si="5">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>22</v>
+        <f t="shared" ref="E7:E49" ca="1" si="6">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94.666663999999997</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>77.777780000000007</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20.555554999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6371,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>828</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>808</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.153846999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>72.222219999999993</v>
+        <v>72.777780000000007</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6403,31 +6396,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>928</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>47.142856999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.333331999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>63.333331999999999</v>
+        <v>60.555557</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,31 +6428,31 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1028</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1023</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>59.411766</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.875</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>64.44444</v>
+        <v>41.111109999999996</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6467,31 +6460,31 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>63.333331999999999</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1103</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.5</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>133</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.105263000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.77778</v>
+        <v>59.444443</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,31 +6492,31 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1228</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.157893999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>34.736843</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>51.111109999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6534,54 +6527,54 @@
         <v>78.333336000000003</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1308</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1313</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>43</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="G13" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>49.545456000000001</v>
+      </c>
       <c r="H13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.444443</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36.111109999999996</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1433</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>47.391303999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>34.545456000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>53.888890000000004</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6589,31 +6582,31 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1528</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1523</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.260868000000002</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>63.888890000000004</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6621,31 +6614,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1608</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>50.869563999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>209</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>61.111109999999996</v>
+        <v>28.88889</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6653,31 +6646,31 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1723</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1708</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>47.272728000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>233</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>32.727271999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>55.555557</v>
+        <v>36.111109999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6685,31 +6678,31 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>47.142856999999999</v>
+        <v>108.333336</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1808</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1803</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.8</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>243</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>58.333331999999999</v>
+        <v>26.11111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6717,31 +6710,31 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1918</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.333331999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>33.333331999999999</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>50.555557</v>
+        <v>28.333334000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,57 +6742,57 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>81.111114999999998</v>
+        <v>63.333331999999999</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2033</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2018</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.652172</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>278</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.666668000000001</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>33.888890000000004</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2108</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2128</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.517242000000003</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>37.77778</v>
+        <v>25.555554999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6807,31 +6800,31 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2238</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2228</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.916668000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>309</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.787880000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.88889</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6839,31 +6832,31 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2328</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2318</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>46.666668000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>34.666668000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>36.666668000000001</v>
+        <v>22.222221000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6871,31 +6864,31 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2418</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2448</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.642856999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>336</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.806449999999998</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>32.22222</v>
+        <v>22.777778999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6903,31 +6896,31 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>41.428570000000001</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2513</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2503</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>352</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>13.888889000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6935,31 +6928,31 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2613</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2603</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>36.666668000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.774192999999997</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>31.11111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6967,57 +6960,57 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>82.777780000000007</v>
+        <v>57.22222</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2723</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2713</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.741936000000003</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>387</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.875</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.222221000000001</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2808</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>406</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.25</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.777778999999999</v>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7025,31 +7018,31 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2933</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2928</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.032257000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>421</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.9375</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>28.333334000000001</v>
+        <v>23.88889</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7057,31 +7050,31 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3038</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3008</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.3125</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>442</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.969695999999999</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>24.444445000000002</v>
+        <v>19.444445000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7089,31 +7082,31 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3108</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3138</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.696967999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.757576</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.666665999999999</v>
+        <v>18.333334000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7121,31 +7114,31 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>36.666668000000001</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3228</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.75</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.470590000000001</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.333334000000001</v>
+        <v>21.666665999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7153,31 +7146,31 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3313</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3333</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.814816</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.757576</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.666665999999999</v>
+        <v>37.77778</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7185,57 +7178,57 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>80.55556</v>
+        <v>38.333331999999999</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3418</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3413</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.185184</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>494</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.285713000000001</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.777778999999999</v>
+        <v>37.22222</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3538</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3533</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.545453999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.714286999999999</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>18.333334000000001</v>
+        <v>53.888890000000004</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7246,28 +7239,28 @@
         <v>608</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3603</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3608</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.047619000000001</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>528</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.470590000000001</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.777778999999999</v>
+        <v>55.555557</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,31 +7268,31 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3728</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3703</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>544</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.22222</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.222221000000001</v>
+        <v>57.22222</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7307,31 +7300,31 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3823</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.476189999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>559</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.37838</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.777778</v>
+        <v>52.77778</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7339,31 +7332,31 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>36.666668000000001</v>
+        <v>101.666664</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3908</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3938</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.333331999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>574</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.743589999999998</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5555553</v>
+        <v>43.888890000000004</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7371,31 +7364,31 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4032</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4003</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.76923</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>594</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8888888000000001</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7403,57 +7396,57 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>80.55556</v>
+        <v>31.666665999999999</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4102</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4108</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.857143000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>617</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.243904000000001</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>29.444445000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4202</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4223</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.032257000000001</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>633</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.243904000000001</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>21.11111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7461,31 +7454,31 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4328</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4333</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.074074000000003</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>129</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>646</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.75</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>35.555557</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7493,31 +7486,31 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4401</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4428</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>457</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.130434000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>656</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.75</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>48.333331999999999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7525,31 +7518,31 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4503</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>457</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.538461999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>677</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.75</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,31 +7550,31 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>37</v>
+        <v>94.666663999999997</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4636</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4603</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.857143000000001</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>133</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>699</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8888888000000001</v>
+        <v>33.888890000000004</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7589,31 +7582,31 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4715</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4733</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>481</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.793101999999998</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>712</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8888888000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7621,57 +7614,57 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>77.777780000000007</v>
+        <v>20.555554999999998</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4808</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4828</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>481</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.625</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>136</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>733</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.243904000000001</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>21.11111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4906</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4903</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>487</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>36.764705999999997</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>138</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>743</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.75</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7679,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -7688,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -7697,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -7706,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>36.153846999999999</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -7715,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -7724,7 +7717,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>72.222219999999993</v>
+        <v>72.777780000000007</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -7736,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>903</v>
+        <v>928</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -7745,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -7754,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -7763,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>41.333331999999999</v>
+        <v>47.142856999999999</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -7772,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -7781,7 +7774,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>63.333331999999999</v>
+        <v>60.555557</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -7793,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -7802,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -7811,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -7820,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>36.875</v>
+        <v>59.411766</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -7829,7 +7822,7 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -7838,7 +7831,7 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>64.44444</v>
+        <v>41.111109999999996</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -7850,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -7859,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -7868,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -7877,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>42.105263000000001</v>
+        <v>42.5</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -7886,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -7895,7 +7888,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>52.77778</v>
+        <v>59.444443</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -7907,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1203</v>
+        <v>1228</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -7925,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -7934,7 +7927,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>34.736843</v>
+        <v>43.157893999999999</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -7943,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -7952,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>60</v>
+        <v>51.111109999999996</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -7964,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -7982,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -7991,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>49.545456000000001</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -8000,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -8009,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="B90">
-        <v>59.444443</v>
+        <v>36.111109999999996</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -8021,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -8039,7 +8032,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -8048,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>34.545456000000001</v>
+        <v>47.391303999999998</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -8057,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -8066,7 +8059,7 @@
         <v>5</v>
       </c>
       <c r="B97">
-        <v>53.888890000000004</v>
+        <v>35</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -8078,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -8096,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="B101">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -8105,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>48.260868000000002</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -8114,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -8123,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>63.888890000000004</v>
+        <v>33.333331999999999</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -8144,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -8153,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -8162,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>31</v>
+        <v>50.869563999999997</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -8171,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="E110" s="1"/>
     </row>
@@ -8180,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>61.111109999999996</v>
+        <v>28.88889</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -8192,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -8210,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="E115" s="1"/>
     </row>
@@ -8219,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>32.727271999999999</v>
+        <v>47.272728000000001</v>
       </c>
       <c r="E116" s="1"/>
     </row>
@@ -8228,7 +8221,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -8237,7 +8230,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>55.555557</v>
+        <v>36.111109999999996</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -8249,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -8258,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E121" s="1"/>
     </row>
@@ -8267,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="E122" s="1"/>
     </row>
@@ -8276,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>30</v>
+        <v>48.8</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -8285,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="E124" s="1"/>
     </row>
@@ -8294,7 +8287,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>58.333331999999999</v>
+        <v>26.11111</v>
       </c>
       <c r="E125" s="1"/>
     </row>
@@ -8306,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>1903</v>
+        <v>1918</v>
       </c>
       <c r="E127" s="1"/>
     </row>
@@ -8315,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E128" s="1"/>
     </row>
@@ -8324,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="B129">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="E129" s="1"/>
     </row>
@@ -8333,7 +8326,7 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>33.333331999999999</v>
+        <v>48.333331999999999</v>
       </c>
       <c r="E130" s="1"/>
     </row>
@@ -8342,7 +8335,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="E131" s="1"/>
     </row>
@@ -8351,7 +8344,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>50.555557</v>
+        <v>28.333334000000001</v>
       </c>
       <c r="E132" s="1"/>
     </row>
@@ -8363,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="E134" s="1"/>
     </row>
@@ -8381,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="B136">
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="E136" s="1"/>
     </row>
@@ -8390,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>36.666668000000001</v>
+        <v>45.652172</v>
       </c>
       <c r="E137" s="1"/>
     </row>
@@ -8399,7 +8392,7 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="E138" s="1"/>
     </row>
@@ -8408,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>40</v>
+        <v>33.888890000000004</v>
       </c>
       <c r="E139" s="1"/>
     </row>
@@ -8420,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>2108</v>
+        <v>2128</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -8438,7 +8431,7 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="E143" s="1"/>
     </row>
@@ -8447,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>35.517242000000003</v>
+        <v>48</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -8456,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="E145" s="1"/>
     </row>
@@ -8465,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>37.77778</v>
+        <v>25.555554999999998</v>
       </c>
       <c r="E146" s="1"/>
     </row>
@@ -8477,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>2238</v>
+        <v>2228</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -8486,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="B149">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E149" s="1"/>
     </row>
@@ -8495,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="B150">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -8504,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>38.787880000000001</v>
+        <v>42.916668000000001</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -8513,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -8522,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>23.88889</v>
+        <v>35</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -8534,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>2328</v>
+        <v>2318</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -8543,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -8552,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="B157">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -8561,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>34.666668000000001</v>
+        <v>46.666668000000001</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -8570,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -8579,7 +8572,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>36.666668000000001</v>
+        <v>22.222221000000001</v>
       </c>
       <c r="E160" s="1"/>
     </row>
@@ -8591,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <v>2418</v>
+        <v>2448</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -8600,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E163" s="1"/>
     </row>
@@ -8609,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="B164">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="E164" s="1"/>
     </row>
@@ -8618,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>35.806449999999998</v>
+        <v>44.642856999999999</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -8627,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -8636,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>32.22222</v>
+        <v>22.777778999999999</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -8648,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>2513</v>
+        <v>2503</v>
       </c>
       <c r="E169" s="1"/>
     </row>
@@ -8657,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -8666,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="B171">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -8675,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -8684,7 +8677,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -8693,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>35</v>
+        <v>13.888889000000001</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -8705,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="E176" s="1"/>
     </row>
@@ -8714,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E177" s="1"/>
     </row>
@@ -8723,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="B178">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="E178" s="1"/>
     </row>
@@ -8732,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>36.774192999999997</v>
+        <v>36.666668000000001</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -8741,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -8750,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>30</v>
+        <v>31.11111</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -8762,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>2723</v>
+        <v>2713</v>
       </c>
       <c r="E183" s="1"/>
     </row>
@@ -8780,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="B185">
-        <v>387</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>36.875</v>
+        <v>37.741936000000003</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -8804,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>27.222221000000001</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="B192">
-        <v>406</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -8836,7 +8829,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>36.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,7 +8837,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -8852,7 +8845,7 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>27.777778999999999</v>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -8860,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>2933</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -8876,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="B199">
-        <v>421</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>35.9375</v>
+        <v>39.032257000000001</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -8892,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -8900,7 +8893,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>28.333334000000001</v>
+        <v>23.88889</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -8908,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>3038</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -8916,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -8924,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="B206">
-        <v>442</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -8932,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>36.969695999999999</v>
+        <v>40.3125</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="B208">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -8948,7 +8941,7 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>24.444445000000002</v>
+        <v>19.444445000000002</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -8956,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>3108</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -8964,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -8972,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="B213">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -8980,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>35.757576</v>
+        <v>39.696967999999998</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -8996,7 +8989,7 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>26.666665999999999</v>
+        <v>18.333334000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -9020,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="B220">
-        <v>470</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9028,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>36.470590000000001</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -9044,7 +9037,7 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>23.333334000000001</v>
+        <v>21.666665999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9052,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>3313</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -9060,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9068,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="B227">
-        <v>480</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -9076,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>35.757576</v>
+        <v>34.814816</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -9092,7 +9085,7 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>26.666665999999999</v>
+        <v>37.77778</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -9100,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>3418</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -9108,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -9116,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B234">
-        <v>494</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -9124,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>38.285713000000001</v>
+        <v>35.185184</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -9140,7 +9133,7 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>17.777778999999999</v>
+        <v>37.22222</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -9148,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>3538</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -9156,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,7 +9157,7 @@
         <v>2</v>
       </c>
       <c r="B241">
-        <v>512</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -9172,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>37.714286999999999</v>
+        <v>29.545453999999999</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -9188,7 +9181,7 @@
         <v>5</v>
       </c>
       <c r="B244">
-        <v>18.333334000000001</v>
+        <v>53.888890000000004</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -9196,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>3603</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -9204,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="B247">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -9212,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="B248">
-        <v>528</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>36.470590000000001</v>
+        <v>29.047619000000001</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -9236,7 +9229,7 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>22.777778999999999</v>
+        <v>55.555557</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -9244,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>3728</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -9252,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="B254">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -9260,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="B255">
-        <v>544</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9268,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>37.22222</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -9284,7 +9277,7 @@
         <v>5</v>
       </c>
       <c r="B258">
-        <v>17.222221000000001</v>
+        <v>57.22222</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -9300,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="B261">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -9308,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="B262">
-        <v>559</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -9316,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>38.37838</v>
+        <v>30.476189999999999</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -9332,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="B265">
-        <v>12.777778</v>
+        <v>52.77778</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -9340,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>3908</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -9348,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="B268">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -9356,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="B269">
-        <v>574</v>
+        <v>385</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -9364,7 +9357,7 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>39.743589999999998</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -9380,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="B272">
-        <v>5.5555553</v>
+        <v>43.888890000000004</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -9388,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>4032</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -9396,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="B275">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -9404,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="B276">
-        <v>594</v>
+        <v>385</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -9412,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>39.5</v>
+        <v>35.76923</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -9428,7 +9421,7 @@
         <v>5</v>
       </c>
       <c r="B279">
-        <v>3.8888888000000001</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -9436,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>4102</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -9444,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="B282">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -9452,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="B283">
-        <v>617</v>
+        <v>385</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -9460,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>40.243904000000001</v>
+        <v>37.857143000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -9476,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>29.444445000000002</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -9484,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="B288">
-        <v>4202</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -9492,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="B289">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -9500,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="B290">
-        <v>633</v>
+        <v>385</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -9508,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>40.243904000000001</v>
+        <v>39.032257000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -9524,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>21.11111</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -9532,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="B295">
-        <v>4328</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -9540,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -9548,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="B297">
-        <v>646</v>
+        <v>399</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -9556,7 +9549,7 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>39.75</v>
+        <v>34.074074000000003</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -9564,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="B299">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -9572,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="B300">
-        <v>3.3333333000000001</v>
+        <v>35.555557</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -9580,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>4401</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -9588,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -9596,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>656</v>
+        <v>457</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -9604,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>39.75</v>
+        <v>29.130434000000001</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -9612,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -9620,7 +9613,7 @@
         <v>5</v>
       </c>
       <c r="B307">
-        <v>3.3333333000000001</v>
+        <v>48.333331999999999</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -9636,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="B310">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -9644,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="B311">
-        <v>677</v>
+        <v>457</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -9652,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>39.75</v>
+        <v>31.538461999999999</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -9660,7 +9653,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -9668,7 +9661,7 @@
         <v>5</v>
       </c>
       <c r="B314">
-        <v>3.3333333000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -9676,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>4636</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -9684,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="B317">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -9692,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="B318">
-        <v>699</v>
+        <v>475</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -9700,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>39.5</v>
+        <v>32.857143000000001</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -9708,7 +9701,7 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -9716,7 +9709,7 @@
         <v>5</v>
       </c>
       <c r="B321">
-        <v>3.8888888000000001</v>
+        <v>33.888890000000004</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -9724,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>4715</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -9732,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B324">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -9740,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="B325">
-        <v>712</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -9748,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>39.5</v>
+        <v>33.793101999999998</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -9756,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -9764,7 +9757,7 @@
         <v>5</v>
       </c>
       <c r="B328">
-        <v>3.8888888000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -9772,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>4808</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -9780,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="B331">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -9788,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="B332">
-        <v>733</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -9796,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>40.243904000000001</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -9804,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="B334">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -9812,7 +9805,7 @@
         <v>5</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>21.11111</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -9820,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>4906</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -9828,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="B338">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -9836,7 +9829,7 @@
         <v>2</v>
       </c>
       <c r="B339">
-        <v>743</v>
+        <v>487</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -9844,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>39.75</v>
+        <v>36.764705999999997</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -9852,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B341">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -9860,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="B342">
-        <v>3.3333333000000001</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
